--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/13baqtoDataBrokenIMGList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/13baqtoDataBrokenIMGList.xlsx
@@ -12,165 +12,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
-  <si>
-    <t>0  Game Provider Name = LuckyGaming   Game Name =  Alchemy Potions  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/AlchemyPotions.png</t>
-  </si>
-  <si>
-    <t>7  Game Provider Name = LuckyGaming   Game Name =  Canal Towns  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/CanalTowns.png</t>
-  </si>
-  <si>
-    <t>10  Game Provider Name = LuckyGaming   Game Name =  Chi Bi  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/mob/ChiBi.png</t>
-  </si>
-  <si>
-    <t>14  Game Provider Name = LuckyGaming   Game Name =  Da San Yuan  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/DaSanYuan.png</t>
-  </si>
-  <si>
-    <t>18  Game Provider Name = LuckyGaming   Game Name =  DuoBao Gold  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/DuoBaoGold.png</t>
-  </si>
-  <si>
-    <t>21  Game Provider Name = LuckyGaming   Game Name =  Fa Da Cai  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/FaDaCai.png</t>
-  </si>
-  <si>
-    <t>24  Game Provider Name = LuckyGaming   Game Name =  Fortune Twins PK  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/FortuneTwinsPK.png</t>
-  </si>
-  <si>
-    <t>32  Game Provider Name = LuckyGaming   Game Name =  Golden Mouse  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/GoldenMouse.png</t>
-  </si>
-  <si>
-    <t>33  Game Provider Name = LuckyGaming   Game Name =  Golden Mouse Caishen  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/GoldenMouseCaishen.png</t>
-  </si>
-  <si>
-    <t>40  Game Provider Name = LuckyGaming   Game Name =  Hell's King  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/Hell'sKing.png</t>
-  </si>
-  <si>
-    <t>41  Game Provider Name = LuckyGaming   Game Name =  Hobbit's Treasure  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/Hobbit'sTreasure.png</t>
-  </si>
-  <si>
-    <t>43  Game Provider Name = LuckyGaming   Game Name =  Hu Hu Hu  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/HuHuHu.png</t>
-  </si>
-  <si>
-    <t>50  Game Provider Name = LuckyGaming   Game Name =  Lion Dance  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/LionDance.png</t>
-  </si>
-  <si>
-    <t>63  Game Provider Name = LuckyGaming   Game Name =  Rocket Man  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/Rocket%20Man.png</t>
-  </si>
-  <si>
-    <t>67  Game Provider Name = LuckyGaming   Game Name =  ShangHai 1920  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/ShangHai1920.png</t>
-  </si>
-  <si>
-    <t>69  Game Provider Name = LuckyGaming   Game Name =  Stone Age  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/Stone%20Age.png.png</t>
-  </si>
-  <si>
-    <t>71  Game Provider Name = LuckyGaming   Game Name =  Super Dragon PK  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/SuperDragonPK.png</t>
-  </si>
-  <si>
-    <t>75  Game Provider Name = LuckyGaming   Game Name =  Treasure Hunting  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/Treasure%20Hunting.png</t>
-  </si>
-  <si>
-    <t>76  Game Provider Name = LuckyGaming   Game Name =  Triple Golden Toad  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/TripleGoldenToad.png</t>
-  </si>
-  <si>
-    <t>78  Game Provider Name = LuckyGaming   Game Name =  Under Water  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/Under%20Water.png</t>
-  </si>
-  <si>
-    <t>82  Game Provider Name = LuckyGaming   Game Name =  Viking  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/Viking.png.png</t>
-  </si>
-  <si>
-    <t>83  Game Provider Name = LuckyGaming   Game Name =  Western Venture  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/WesternVenture.png</t>
-  </si>
-  <si>
-    <t>84  Game Provider Name = LuckyGaming   Game Name =  Wild West  cod = 404   src = https://resources.baqto.com/products/LuckyGaming/web/Wild%20West.png</t>
-  </si>
-  <si>
-    <t>334  Game Provider Name = Microgaming   Game Name =  BankoftheNile  src = https://resources.{p}/products/BankoftheNile.jpg</t>
-  </si>
-  <si>
-    <t>519  Game Provider Name = Microgaming   Game Name =  BookOfSouls  src = https://resources.{p}/products/BookOfSouls.jpg</t>
-  </si>
-  <si>
-    <t>677  Game Provider Name = Microgaming   Game Name =  CheekyFruits6Deluxe  src = https://resources.{p}/products/CheekyFruits6Deluxe.jpg</t>
-  </si>
-  <si>
-    <t>963  Game Provider Name = Microgaming   Game Name =  Dream3Team  src = https://resources.{p}/products/Dream3Team.jpg</t>
-  </si>
-  <si>
-    <t>991  Game Provider Name = EGT   Game Name =  Egypt Sky  cod = 403   src = https://resources.baqto.com/products/</t>
-  </si>
-  <si>
-    <t>1016  Game Provider Name = Microgaming   Game Name =  EliteofEvil:PortalofGold  src = https://resources.{p}/products/EliteofEvil:PortalofGold.jpg</t>
-  </si>
-  <si>
-    <t>1034  Game Provider Name = Microgaming   Game Name =  EternalShogi  src = https://resources.{p}/products/EternalShogi·jpg</t>
-  </si>
-  <si>
-    <t>1143  Game Provider Name = Microgaming   Game Name =  FootballStarDeluxe  src = https://resources.{p}/products/FootballStarDeluxe.jpg</t>
-  </si>
-  <si>
-    <t>1200  Game Provider Name = Microgaming   Game Name =  FruitPunchUp  src = https://resources.{p}/products/FruitPunchUp·jpg</t>
-  </si>
-  <si>
-    <t>1220  Game Provider Name = Microgaming   Game Name =  Fruitsand777's  src = https://resources.{p}/products/Fruitsand777's·jpg</t>
-  </si>
-  <si>
-    <t>1389  Game Provider Name = Microgaming   Game Name =  Goldilocks  src = https://resources.{p}/products/goldilocks.jpg</t>
-  </si>
-  <si>
-    <t>1443  Game Provider Name = Leander   Game Name =  Hattrick Heroes  cod = 403   src = https://static.egamings.com/games/leander/?attrick_?eroes.jpg</t>
-  </si>
-  <si>
-    <t>1526  Game Provider Name = Microgaming   Game Name =  HotInk  src = https://resources.{p}/products/hotink.jpeg</t>
-  </si>
-  <si>
-    <t>1690  Game Provider Name = EGT   Game Name =  Kangaroo Land  cod = 403   src = https://resources.baqto.com/products/</t>
-  </si>
-  <si>
-    <t>1743  Game Provider Name = Microgaming   Game Name =  LaraJonesisCleopatra  src = https://resources.{p}/products/LaraJonesisCleopatra·jpg</t>
-  </si>
-  <si>
-    <t>1872  Game Provider Name = Microgaming   Game Name =  LuckyRiches:Hyperspins  src = https://resources.{p}/products/LuckyRiches:Hyperspins.jpg</t>
-  </si>
-  <si>
-    <t>1922  Game Provider Name = Amatic   Game Name =  Magic Scatter  cod = 404   src = https://resources.baqto.com/products/outcomebet/vikwin/web/MagicScatter.png</t>
-  </si>
-  <si>
-    <t>1986  Game Provider Name = Microgaming   Game Name =  Meganova  src = https://resources.{p}/products/Meganova·jpg</t>
-  </si>
-  <si>
-    <t>2006  Game Provider Name = Microgaming   Game Name =  MidnightMadness  src = https://resources.{p}/products/MidnightMadness.jpg</t>
-  </si>
-  <si>
-    <t>2235  Game Provider Name = Microgaming   Game Name =  Pentagram5000  src = https://resources.{p}/products/Pentagram5000.jpg</t>
-  </si>
-  <si>
-    <t>2296  Game Provider Name = Microgaming   Game Name =  Popstar  src = https://resources.{p}/products/Popstar.jpg</t>
-  </si>
-  <si>
-    <t>2447  Game Provider Name = EGT   Game Name =  Retro Style  cod = 403   src = https://resources.baqto.com/products/</t>
-  </si>
-  <si>
-    <t>2512  Game Provider Name = Microgaming   Game Name =  RomanPower  src = https://resources.{p}/products/RomanPower.jpg</t>
-  </si>
-  <si>
-    <t>2558  Game Provider Name = Microgaming   Game Name =  SamanthaFox  src = https://resources.{p}/products/SamanthaFoxt·jpg</t>
-  </si>
-  <si>
-    <t>2793  Game Provider Name = Microgaming   Game Name =  SupeitUp  cod = 404   src = https://static.egamings.com/games/mg/supeitup.jpeg</t>
-  </si>
-  <si>
-    <t>2795  Game Provider Name = Microgaming   Game Name =  SuperBarXPullTab  src = https://resources.{p}/products/SuperBarXPullTab.jpg</t>
-  </si>
-  <si>
-    <t>2822  Game Provider Name = Microgaming   Game Name =  SuperSync  src = https://resources.{p}/products/SuperSync.jpg</t>
-  </si>
-  <si>
-    <t>2873  Game Provider Name = Microgaming   Game Name =  Terminator2  cod = 404   src = https://static.egamings.com/games/mg/Terminator2.jpg</t>
-  </si>
-  <si>
-    <t>2891  Game Provider Name = EGT   Game Name =  The Big Journey  cod = 403   src = https://resources.baqto.com/products/</t>
-  </si>
-  <si>
-    <t>3232  Game Provider Name = Microgaming   Game Name =  WildReels  src = https://resources.{p}/products/WildReelse.jpg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+  <si>
+    <t>78  Game Provider Name = IGT   Game Name =  100 Pandas  cod = 404   src = https://resources.baqto.com/products/igt/web/onehundredpandas.jpg</t>
+  </si>
+  <si>
+    <t>247  Game Provider Name = QuickSpin   Game Name =  Ark of Mystery  cod = 404   src = https://resources.baqto.com/products/quickspin/web/ArkofMystery.png</t>
+  </si>
+  <si>
+    <t>352  Game Provider Name = QuickSpin   Game Name =  Big Bad Wolf  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_bbw.jpg</t>
+  </si>
+  <si>
+    <t>356  Game Provider Name = QuickSpin   Game Name =  Big Bot Crew  cod = 404   src = https://resources.baqto.com/products/quickspin/web/BigBotCrew.png</t>
+  </si>
+  <si>
+    <t>582  Game Provider Name = IGT   Game Name =  Cash Coaster  cod = 404   src = https://resources.baqto.com/products/igt/web/cashcoaster.jpg</t>
+  </si>
+  <si>
+    <t>657  Game Provider Name = IGT   Game Name =  Cleopatra  cod = 404   src = https://resources.baqto.com/products/igt/web/cleopatragpe.jpg</t>
+  </si>
+  <si>
+    <t>673  Game Provider Name = QuickSpin   Game Name =  Colossus  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_colossus.jpg</t>
+  </si>
+  <si>
+    <t>720  Game Provider Name = QuickSpin   Game Name =  Crystal Queen  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_crystalqueen.jpg.jpg</t>
+  </si>
+  <si>
+    <t>753  Game Provider Name = IGT   Game Name =  Day of the Dead  cod = 404   src = https://resources.baqto.com/products/igt/web/dayofthedead.jpg</t>
+  </si>
+  <si>
+    <t>793  Game Provider Name = IGT   Game Name =  Diamond Queen  cod = 404   src = https://resources.baqto.com/products/igt/web/diamondqueen.jpg</t>
+  </si>
+  <si>
+    <t>814  Game Provider Name = QuickSpin   Game Name =  Divine Dreams  cod = 404   src = https://resources.baqto.com/products/quickspin/web/DivineDreams.png</t>
+  </si>
+  <si>
+    <t>864  Game Provider Name = QuickSpin   Game Name =  Dragon Shrine  cod = 404   src = https://resources.baqto.com/products/quickspin/web/DragonShrine.png</t>
+  </si>
+  <si>
+    <t>889  Game Provider Name = QuickSpin   Game Name =  Durian Dynamite  cod = 404   src = https://resources.baqto.com/products/quickspin/web/DurianDynamite.png</t>
+  </si>
+  <si>
+    <t>906  Game Provider Name = QuickSpin   Game Name =  Eastern Emeralds  cod = 404   src = https://resources.baqto.com/products/quickspin/web/EasternEmeralds.png</t>
+  </si>
+  <si>
+    <t>983  Game Provider Name = QuickSpin   Game Name =  Fairy Gate  cod = 404   src = https://resources.baqto.com/products/quickspin/web/FairyGate.png</t>
+  </si>
+  <si>
+    <t>1011  Game Provider Name = IGT   Game Name =  Fire Opals  cod = 404   src = https://resources.baqto.com/products/igt/web/fireopals.jpg</t>
+  </si>
+  <si>
+    <t>1157  Game Provider Name = IGT   Game Name =  Garden Party  cod = 404   src = https://resources.baqto.com/products/igt/web/gardenparty.jpg</t>
+  </si>
+  <si>
+    <t>1181  Game Provider Name = QuickSpin   Game Name =  Genies Touch  cod = 404   src = https://resources.baqto.com/products/quickspin/web//qso_geniestouch.jpg</t>
+  </si>
+  <si>
+    <t>1275  Game Provider Name = QuickSpin   Game Name =  Goldilocks &amp; Wild Bears  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_goldilocks2.jpg</t>
+  </si>
+  <si>
+    <t>1276  Game Provider Name = QuickSpin   Game Name =  Gold Lab  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_goldlab.jpg</t>
+  </si>
+  <si>
+    <t>1282  Game Provider Name = IGT   Game Name =  Grand Monarch  cod = 404   src = https://resources.baqto.com/products/igt/web/grandmonarch.jpg</t>
+  </si>
+  <si>
+    <t>1391  Game Provider Name = QuickSpin   Game Name =  Hot Sync  cod = 404   src = https://resources.baqto.com/products/quickspin/web/HotSync.png</t>
+  </si>
+  <si>
+    <t>1425  Game Provider Name = QuickSpin   Game Name =  Illuminous  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_illuminous.jpg</t>
+  </si>
+  <si>
+    <t>1487  Game Provider Name = IGT   Game Name =  Jewel of the Arts  cod = 404   src = https://resources.baqto.com/products/igt/web/jewelofthearts.jpg</t>
+  </si>
+  <si>
+    <t>1572  Game Provider Name = IGT   Game Name =  Kitty Glitter  cod = 404   src = https://resources.baqto.com/products/igt/web/kittyglitter.jpg</t>
+  </si>
+  <si>
+    <t>1627  Game Provider Name = QuickSpin   Game Name =  Leprechaun Hills  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_leprechaunhills.jpg</t>
+  </si>
+  <si>
+    <t>1701  Game Provider Name = Amatic   Game Name =  Lucky Joker 40  cod = 404   src = https://static.egamings.com/games/amaticdirect/luckyjoker40.jpg</t>
+  </si>
+  <si>
+    <t>1751  Game Provider Name = Amatic   Game Name =  Magic Scatter  cod = 404   src = https://resources.baqto.com/products/outcomebet/vikwin/web/MagicScatter.png</t>
+  </si>
+  <si>
+    <t>1778  Game Provider Name = IGT   Game Name =  Masques of San Marco  cod = 404   src = https://resources.baqto.com/products/igt/web/masquesofsanmarco.jpg</t>
+  </si>
+  <si>
+    <t>1785  Game Provider Name = IGT   Game Name =  Mayan Riches  cod = 404   src = https://resources.baqto.com/products/igt/web/mayanriches.jpg</t>
+  </si>
+  <si>
+    <t>1786  Game Provider Name = QuickSpin   Game Name =  Mayana  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_mayana.jpg</t>
+  </si>
+  <si>
+    <t>1822  Game Provider Name = QuickSpin   Game Name =  Mighty Arthur  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_mightyarthur.jpg</t>
+  </si>
+  <si>
+    <t>1837  Game Provider Name = IGT   Game Name =  Miss Red  cod = 404   src = https://resources.baqto.com/products/igt/web/missred.jpg</t>
+  </si>
+  <si>
+    <t>1882  Game Provider Name = QuickSpin   Game Name =  Mountain King  cod = 404   src = https://resources.baqto.com/products/quickspin/web/MountainKing.png</t>
+  </si>
+  <si>
+    <t>1953  Game Provider Name = IGT   Game Name =  Noahs Ark  cod = 404   src = https://resources.baqto.com/products/igt/web//noahsark.jpg</t>
+  </si>
+  <si>
+    <t>1956  Game Provider Name = QuickSpin   Game Name =  Northern Sky  cod = 404   src = https://resources.baqto.com/products/quickspin/web/NorthernSky.png</t>
+  </si>
+  <si>
+    <t>2048  Game Provider Name = QuickSpin   Game Name =  Phoenix Sun  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_phoenixsun.jpg</t>
+  </si>
+  <si>
+    <t>2053  Game Provider Name = QuickSpin   Game Name =  Pied Piper  cod = 404   src = https://resources.baqto.com/products/quickspin/web/PiedPiper.png</t>
+  </si>
+  <si>
+    <t>2076  Game Provider Name = QuickSpin   Game Name =  Pirates Charm  cod = 404   src = https://resources.baqto.com/products/quickspin/web/PiratesCharm.png</t>
+  </si>
+  <si>
+    <t>2123  Game Provider Name = IGT   Game Name =  Prowling Panther  cod = 404   src = https://resources.baqto.com/products/igt/web/prowlingpanther.jpg</t>
+  </si>
+  <si>
+    <t>2164  Game Provider Name = NetEnt   Game Name =  RageOfTheSeas  src = https://resources.baqto.com/products/netent/web/rage_of_seas.png</t>
+  </si>
+  <si>
+    <t>2180  Game Provider Name = QuickSpin   Game Name =  Razortooth  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_sabretooth.jpg</t>
+  </si>
+  <si>
+    <t>2383  Game Provider Name = QuickSpin   Game Name =  Second Strike  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_secondstrike.jpg</t>
+  </si>
+  <si>
+    <t>2393  Game Provider Name = QuickSpin   Game Name =  Sevens High  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_sevens.jpg</t>
+  </si>
+  <si>
+    <t>2419  Game Provider Name = IGT   Game Name =  Siberian Storm  cod = 404   src = https://resources.baqto.com/products/igt/web/siberianstorm.jpg</t>
+  </si>
+  <si>
+    <t>2488  Game Provider Name = QuickSpin   Game Name =  Spinions Beach Party  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_spinions.jpg</t>
+  </si>
+  <si>
+    <t>2508  Game Provider Name = IGT   Game Name =  Star Trek  cod = 404   src = https://resources.baqto.com/products/igt/web/startrek.jpg</t>
+  </si>
+  <si>
+    <t>2519  Game Provider Name = QuickSpin   Game Name =  Sticky Bandits  cod = 404   src = https://resources.baqto.com/products/quickspin/web/qso_stickybandits.jpg</t>
+  </si>
+  <si>
+    <t>2545  Game Provider Name = IGT   Game Name =  Sumatran Storm  cod = 404   src = https://resources.baqto.com/products/igt/web/sumatranstorm.jpg</t>
+  </si>
+  <si>
+    <t>2613  Game Provider Name = QuickSpin   Game Name =  Tales of Doctor Dolittle  cod = 404   src = https://resources.baqto.com/products/quickspin/web/TalesofDoctorDolittle.png</t>
+  </si>
+  <si>
+    <t>2851  Game Provider Name = IGT   Game Name =  Vegas Baby  cod = 404   src = https://resources.baqto.com/products/igt/web/vegasbaby.jpg</t>
+  </si>
+  <si>
+    <t>2886  Game Provider Name = QuickSpin   Game Name =  Volcano Riches  cod = 404   src = https://resources.baqto.com/products/quickspin/web/VolcanoRiches.png</t>
+  </si>
+  <si>
+    <t>2897  Game Provider Name = IGT   Game Name =  Water Dragons  cod = 404   src = https://resources.baqto.com/products/igt/web/waterdragons.jpg</t>
+  </si>
+  <si>
+    <t>2907  Game Provider Name = IGT   Game Name =  Western Belles  cod = 404   src = https://resources.baqto.com/products/igt/web/westernbelles.jpg</t>
+  </si>
+  <si>
+    <t>2930  Game Provider Name = QuickSpin   Game Name =  Wild Chase  cod = 404   src = https://resources.baqto.com/products/quickspin/web/WildChase.png</t>
+  </si>
+  <si>
+    <t>2977  Game Provider Name = IGT   Game Name =  Wild Wolf  cod = 404   src = https://resources.baqto.com/products/igt/web/wildwolf.jpg</t>
+  </si>
+  <si>
+    <t>3000  Game Provider Name = QuickSpin   Game Name =  Wins of Fortune  cod = 404   src = https://resources.baqto.com/products/quickspin/web/WinsofFortune.png</t>
+  </si>
+  <si>
+    <t>3024  Game Provider Name = IGT   Game Name =  Wolf Run  cod = 404   src = https://resources.baqto.com/products/igt/web/wolfrun.jpg</t>
   </si>
 </sst>
 </file>
@@ -215,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -489,6 +504,31 @@
         <v>52</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
